--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Arrhythmia_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Arrhythmia_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +462,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional) is present.</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Positional chest pain can be associated with arrhythmias, particularly if it relates to esophageal irritation or cardiac issues.</t>
+          <t>Pain that is reproducible with arm movements can sometimes be associated with musculoskeletal causes rather than cardiac, but in the context of arrhythmia, it may suggest atypical presentations of cardiac issues.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,19 +477,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of palpitations is a strong indicator against arrhythmia, as they are a common symptom.</t>
+          <t>Palpitations are a common symptom of arrhythmias, and their absence makes arrhythmia less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tightness (character of pain) is present.</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chest tightness can be a symptom of arrhythmia, as it may indicate cardiac distress.</t>
+          <t>Chest pain associated with eating can sometimes be linked to esophageal issues, but in the context of arrhythmia, it may suggest atypical presentations of cardiac issues.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,73 +499,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shortness of breath is often associated with arrhythmias; its absence suggests a lower likelihood of this diagnosis.</t>
+          <t>Shortness of breath is often associated with arrhythmias, and its absence reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chest pain related to eating can suggest esophageal spasm or cardiac issues, which may include arrhythmias.</t>
+          <t>Positional chest pain can sometimes be associated with pericarditis or other cardiac conditions, which may be related to arrhythmias.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Diaphoresis is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coughing can be related to cardiac issues; its absence may indicate that arrhythmia is less likely.</t>
+          <t>Diaphoresis (sweating) is a common symptom during arrhythmic events, and its absence makes arrhythmia less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia can be associated with esophageal motility disorders, which may coexist with arrhythmias.</t>
+          <t>Odynophagia is typically related to esophageal conditions, but in rare cases, it can be associated with cardiac issues that might relate to arrhythmias.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Weakness reported is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting can accompany arrhythmias; their absence suggests a lower likelihood of arrhythmia.</t>
+          <t>Weakness can be a symptom of arrhythmias, and its absence reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Reports pain location is behind sternum, middle of chest is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can indicate a significant underlying condition, including potential cardiac issues.</t>
+          <t>Chest pain located behind the sternum is a common presentation of cardiac-related issues, which can include arrhythmias.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Intermittent temporal pattern (not constant) of symptoms is absent.</t>
+          <t>Exertion makes it worse for more than an hour after eating is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A constant pattern of symptoms may indicate a non-arrhythmic cause, as arrhythmias often present with intermittent symptoms.</t>
+          <t>Exertional symptoms are often associated with cardiac issues, including arrhythmias, and their absence makes arrhythmia less likely.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that can be used to manage hypertension and angina, conditions that may be associated with arrhythmias.</t>
+          <t>Females have a slightly higher risk of certain types of arrhythmias, such as atrial fibrillation, compared to males.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Absence of prior myocardial infarction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is a known risk factor for arrhythmias; its absence suggests a lower likelihood of developing such conditions.</t>
+          <t>A history of myocardial infarction is a strong risk factor for arrhythmias, particularly ventricular arrhythmias.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Middle age</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain types of arrhythmias, such as atrial fibrillation, are more prevalent in females, especially in middle age.</t>
+          <t>Middle age is a period where the risk of developing arrhythmias begins to increase due to age-related changes in the heart.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is another risk factor for arrhythmias; its absence further reduces the likelihood of arrhythmias.</t>
+          <t>Hypertension is a common risk factor for arrhythmias, and its absence reduces the likelihood of arrhythmias.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Takes amlodipine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The prevalence of arrhythmias increases with age, making middle-aged individuals more susceptible.</t>
+          <t>Amlodipine is a medication that can be used to manage hypertension, which is a risk factor for arrhythmias. Its use may indicate a history of cardiovascular issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Absence of previously diagnosed Coronary Artery Disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation exposure in these areas can increase the risk of arrhythmias; its absence suggests a lower risk.</t>
+          <t>Coronary artery disease is a significant risk factor for arrhythmias, and its absence decreases the likelihood of arrhythmias.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Environmental allergies absent</t>
+          <t>Absence of recent medication changes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly linked, the absence of environmental allergies may suggest a lower overall inflammatory state, which can be associated with certain types of arrhythmias.</t>
+          <t>Stable medication regimens can sometimes mask underlying conditions like arrhythmias, as changes in medication can often unmask or exacerbate arrhythmias.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>Absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Coronary artery disease is a significant risk factor for arrhythmias; its absence indicates a lower likelihood of arrhythmias.</t>
+          <t>Diabetes is a risk factor for cardiovascular diseases, including arrhythmias, and its absence reduces the risk.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Asthma absent</t>
+          <t>Absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of asthma may indicate a lower risk of respiratory-related arrhythmias, although this is less direct.</t>
+          <t>While hypertension is a risk factor for arrhythmias, its absence in a patient taking amlodipine might suggest the medication is being used for other cardiovascular reasons, potentially related to arrhythmias.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diagnosed hypertension is absent</t>
+          <t>Absence of obesity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is a major risk factor for arrhythmias; its absence strongly supports the idea that arrhythmias are less likely.</t>
+          <t>Obesity is a known risk factor for arrhythmias, and its absence reduces the likelihood of arrhythmias.</t>
         </is>
       </c>
     </row>
@@ -768,17 +769,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction is a significant risk factor for cardiovascular diseases, including arrhythmias, suggesting a genetic predisposition.</t>
+          <t>A family history of myocardial infarction can be associated with an increased risk of cardiovascular diseases, including arrhythmias.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use reduces the risk of developing arrhythmias, as active smoking is a known risk factor.</t>
+          <t>The absence of alcohol use reduces the risk of arrhythmias, as alcohol can be a trigger for some types of arrhythmias.</t>
         </is>
       </c>
     </row>
@@ -790,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress can lead to increased sympathetic nervous system activity, which may precipitate arrhythmias.</t>
+          <t>Social stress can contribute to the development of arrhythmias by affecting the autonomic nervous system and increasing sympathetic activity.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a stable lifestyle, which is less likely to contribute to stress-induced arrhythmias.</t>
+          <t>The absence of current tobacco use decreases the risk of arrhythmias, as smoking is a known risk factor.</t>
         </is>
       </c>
     </row>
@@ -812,39 +813,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tobacco use is associated with cardiovascular disease and can contribute to the development of arrhythmias.</t>
+          <t>Prior tobacco use can have long-term effects on cardiovascular health, potentially increasing the risk of arrhythmias.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of a family history of cancer may suggest a lower overall burden of chronic disease, which can be associated with arrhythmias.</t>
+          <t>While not directly related to arrhythmias, the absence of autoimmune conditions in the family history may suggest a lower overall risk of systemic inflammation-related arrhythmias.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of autoimmune conditions like Rheumatoid Arthritis may suggest a lower risk of certain types of arrhythmias that can be associated with systemic inflammation.</t>
+          <t>While current tobacco use is absent, the presence of prior use still poses a risk for arrhythmias.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of arrhythmias that can occur as a complication of such interventions.</t>
+          <t>The absence of recent travel reduces the likelihood of arrhythmias related to travel stress or changes in routine.</t>
         </is>
       </c>
     </row>
@@ -856,17 +857,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of alcohol use is favorable as alcohol can be a trigger for arrhythmias in susceptible individuals.</t>
+          <t>Although alcohol use is absent, other risk factors present may still contribute to arrhythmia risk.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications suggests a lower risk profile for cardiovascular issues, including arrhythmias.</t>
+          <t>The absence of recent medical procedures reduces the risk of arrhythmias that can be triggered by surgical stress or anesthesia.</t>
         </is>
       </c>
     </row>
@@ -914,110 +915,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can be associated with various underlying conditions, including those that may lead to arrhythmias, such as hyperthyroidism or heart failure.</t>
+          <t>Telangiectasias can be associated with certain conditions that may predispose to arrhythmias, such as connective tissue disorders.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon on exam is absent.</t>
+          <t>High blood pressure when checked is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there may not be underlying vascular issues that can contribute to arrhythmias.</t>
+          <t>Hypertension is a common risk factor for arrhythmias, and its absence reduces the likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with connective tissue diseases that may also have cardiovascular implications, potentially leading to arrhythmias.</t>
+          <t>Unexplained weight loss can be associated with systemic conditions that may also affect cardiac rhythm.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Obesity by vital signs is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice may indicate that there are no thyroid issues affecting the heart rhythm, which can be a cause of arrhythmias.</t>
+          <t>Obesity is a known risk factor for arrhythmias, and its absence reduces the likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there are no respiratory issues contributing to arrhythmias, allowing for a clearer focus on cardiac causes.</t>
+          <t>No other findings strongly support the presence of arrhythmia based on the provided context.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Weakness on exam is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there are no respiratory issues contributing to arrhythmias, allowing for a clearer focus on cardiac causes.</t>
+          <t>Generalized weakness can be a symptom of arrhythmia-related conditions, and its absence reduces the likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice may indicate that there are no thyroid issues affecting the heart rhythm, which can be a cause of arrhythmias.</t>
+          <t>No other findings strongly support the presence of arrhythmia based on the provided context.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Neck masses or fullness observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of weakness may indicate that there are no systemic issues affecting the heart, which can lead to arrhythmias.</t>
+          <t>Neck masses or fullness could indicate thyroid issues, which can affect heart rhythm, and their absence reduces the likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>High blood pressure when checked is absent.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of high blood pressure can suggest that there are no hypertensive causes for arrhythmias, which can be a contributing factor.</t>
+          <t>No other findings strongly support the presence of arrhythmia based on the provided context.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Cough observed is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of obesity suggests that there may be a lower risk for arrhythmias, as obesity is a known risk factor for various cardiac conditions.</t>
+          <t>A persistent cough can be associated with heart failure or other cardiac conditions that may lead to arrhythmias, and its absence reduces the likelihood of arrhythmia.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Arrhythmia</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Arrhythmia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Arrhythmia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Arrhythmia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is a risk factor for cardiovascular diseases, which can include arrhythmias.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA suggests that autoimmune conditions, which can sometimes lead to arrhythmias, are less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support arrhythmia, but it rules out autoimmune causes that might mimic or contribute to arrhythmias.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of aspiration suggests that respiratory complications, which can sometimes lead to arrhythmias, are less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration does not directly support arrhythmia but rules out respiratory complications that could mimic cardiac symptoms.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of interstitial lung disease (ILD) suggests that pulmonary complications, which can sometimes lead to arrhythmias, are less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of interstitial lung disease (ILD) does not directly support arrhythmia but rules out pulmonary causes that could mimic cardiac symptoms.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum suggests that structural thoracic issues, which can sometimes lead to arrhythmias, are less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum does not directly support arrhythmia but rules out structural thoracic issues that could mimic cardiac symptoms.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>While hyperlipidemia is a risk factor for cardiovascular disease, it is not specific for arrhythmias and can be present in many other conditions.</t>
         </is>
       </c>
     </row>
